--- a/biology/Botanique/Archiduchesse_Maria_Immaculata/Archiduchesse_Maria_Immaculata.xlsx
+++ b/biology/Botanique/Archiduchesse_Maria_Immaculata/Archiduchesse_Maria_Immaculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Archiduchesse Maria Immaculata' est un cultivar de rosier obtenu en 1887 par la maison luxembourgeoise Soupert &amp; Notting[2]. Il rend hommage à la princesse Maria Immaculata de Bourbon-Siciles (1844-1899), épouse de l'archiduc Charles-Salvator d'Autriche-Toscane (1839-1892), frère cadet du grand-duc Ferdinand IV de Toscane.
+'Archiduchesse Maria Immaculata' est un cultivar de rosier obtenu en 1887 par la maison luxembourgeoise Soupert &amp; Notting. Il rend hommage à la princesse Maria Immaculata de Bourbon-Siciles (1844-1899), épouse de l'archiduc Charles-Salvator d'Autriche-Toscane (1839-1892), frère cadet du grand-duc Ferdinand IV de Toscane.
 Il est issu d'un croisement entre 'Madame Lombard' (Lacharme 1878) et 'Socrate'.
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier thé montre de grandes fleurs en forme de coupe aux pétales étroits au centre, larges et arrondis en pourtour ; mais c'est surtout le coloris qui fit sensation à l'époque, nouveau pour un rosier thé : il s'agit d'un rouge brique clair et vermillon doré au cœur. Cette variété très florifère[3] remonte bien et évolue alors vers le rose pêche[4].
-Anton Tchekhov affectionnait cette variété qu'il avait plantée dans le jardin de sa villa de Yalta en Crimée[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier thé montre de grandes fleurs en forme de coupe aux pétales étroits au centre, larges et arrondis en pourtour ; mais c'est surtout le coloris qui fit sensation à l'époque, nouveau pour un rosier thé : il s'agit d'un rouge brique clair et vermillon doré au cœur. Cette variété très florifère remonte bien et évolue alors vers le rose pêche.
+Anton Tchekhov affectionnait cette variété qu'il avait plantée dans le jardin de sa villa de Yalta en Crimée.
 Ce rosier raffiné mais fragile, qui était fort à la mode à la Belle Époque, n'est plus commercialisé.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Premier prix de la Société d'horticulture et de botanique d'Huy  février 1887[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Premier prix de la Société d'horticulture et de botanique d'Huy  février 1887.</t>
         </is>
       </c>
     </row>
